--- a/ArtigoFormatoIEEE/R2R_SANER2015.xlsx
+++ b/ArtigoFormatoIEEE/R2R_SANER2015.xlsx
@@ -14,17 +14,24 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Plan1!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>Revisão 1</t>
   </si>
@@ -243,6 +250,75 @@
   <si>
     <t>Vide comentário abaixo, sobre a revisão 4.</t>
   </si>
+  <si>
+    <t>Acho que o revisor está ignorando conflitos indiretos quando fala que trabalho em paralelo é na mesma feature ou no mesmo arquivo. Casos onde pessoas trabalham em paralelo em features diferentes, tocando em arquivos diferentes, também podem ser problemáticos quando há dependência entre esses arquivos. Isso levaria a conflitos semânticos. Acho que podemos colocar um parágrafo na introdução dando esse contexto.</t>
+  </si>
+  <si>
+    <t>Ok, mas como esse avaliador sentiu essa dificuldade, pode ser interessante adicionar uma frase ou duas protegendo esse ponto. Ou seja, temos que evitar que avaliadores futuros façam o mesmo comentário.</t>
+  </si>
+  <si>
+    <t>Não entendi. Seria uma RQ nova?</t>
+  </si>
+  <si>
+    <t>ok.</t>
+  </si>
+  <si>
+    <t>Esse problema de cores em paper é antigo. Se está nítida a impressão em jato de tinta, ignore.</t>
+  </si>
+  <si>
+    <t>Entendo, mas ele tem um pouco de razão. Será que não é viável, mesmo que de forma resumida, passar um pouco mais de conhecimento do que houve? Como nem o nome do repo é citado, o usuário pode clicar desnecessarimente, por não ser o repo que ele está trabalhando no momento.</t>
+  </si>
+  <si>
+    <t>Não acho o argumento do --force seja adequado. Acho melhor argumentar que, apesar de ser necessário fazer um pull antes do push caso tenha havido mudanças em paralelo, a percepção dessas mudanças só ocorrerá nesse momento. Aí vc pode ressaltar a relevância de se ter essa percepção de forma contínua. Acho válido defender isso tanto no artigo quanto na dissertação.</t>
+  </si>
+  <si>
+    <t>A avaliação é nosso ponto fraco. Precisamos, no artigo e na dissertação, fortalecer ela um pouco. Uma saída um pouco mais trabalhosa seria pegar aqueles seus cenários do JQuery e apresentar para uns colegas do GEMS (5 ou mais), fazendo algumas perguntas relacionadas a interpretação. Isso nos daria dados para ver o quanto, de fato, as visualizações estão ajudando. O que acha? Se vc topar, fazemos uma reunião para definir mais precisamente como seria isso. Acho que com 1 ou 2 semanas, conseguimos.</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Também não entendi.</t>
+  </si>
+  <si>
+    <t>Na dissertação, como vc terá mais espaço, pode ser legal simular um cenário com um grafo, onde cada nó é um peer. Aí vc simula os nós instalando DyeVC e vai colorindo o grafo, mostrando quem vai sendo descoberto. Se vc fizer nós pequenos (pontos), poderia ter uma sequência de grafos na mesma figura, lado a lado, ocupando pouco espaço.</t>
+  </si>
+  <si>
+    <t>ok. A ideia anterior pode ser aplicada ao artigo tb, mas comeria espaço. Veja o que acha.</t>
+  </si>
+  <si>
+    <t>Acho que cabe uma frase ou duas sobre essas suas considerações de rebase, citando o Pro Git e dizendo que não é recomendado seu uso pós-push. Quanto ao cherry picking, vale ressaltar que implica em um novo commit em outro ramo, com hash diferente, e que será possível saber quem tem ou não esse novo commit na topologia (ou seja, inverta o raciocínio e faça a venda como algo positivo: por ter outro hash, ele é único na topologia e pode ser rastreado independentemente do commit que ele originou).</t>
+  </si>
+  <si>
+    <t>Acho que precisamos dar uma ênfase maior ao Crystal, já que ele aparenta ser nosso maior competidor. Caprixe na dissertação, mas mesmo no artigo dedique uns 2 parágrafos a ele. Primeiro, fale do que DyeVc e Crystal têm em comum. Depois entre em detalhes das diferenças.</t>
+  </si>
+  <si>
+    <t>Pelo que me lembro, efetuar push de um repositório para outro não é permitido (pode ser que tenha force para isso, mas não é algo natural). Isso pq vc estaria alterando o espaço de trabalho de alguém sem esse alguém saber. Acho que já conversamos sobre isso em algum momento. Sendo assim, pode valer a pena revisitar esse ponto. Mas quanto ao cenário da Fig. 1, apesar de possível, é pouco provável mesmo. Um caminho seria partir para um cenário mais mundano, e realista (com servidores de desenvolvimento/homologação/produção). Outro caminho é manter aquele cenário (revisitando a questão dos pushes) e discutir essa questão de ser genério, eventualmente apresentando de forma complementar o cenário de desenv/homolog/prod (isso na dissertação, que temos espaço).</t>
+  </si>
+  <si>
+    <t>Mas o avaliador não fala que a abordagem usa a mensagem. Ele fala que nós usamos a mensagem para reconstruir a história durante a avaliação, e podemos ter errado por conta disso. Por que não conseguimos identificar merge com mensagem própria? Não daria para ver merge de ramo se tivesse dois pais e um dos pais tivesse em um ramo (ponteiro de ramo na cabeça)? Repare que essa sua reação a esse comentário não é boa. Vc optou por brigar com o avaliador no lugar de tentar entender a crítica e aprimorar o trabalho. Tente tirar o máximo desse feedback, tanto para o artigo quanto para a dissertação. Isso pode tornar nossa vida mais fácil na defesa.</t>
+  </si>
+  <si>
+    <t>Esse seu segundo argumento deve estar de alguma forma no texto (se é que já não está).</t>
+  </si>
+  <si>
+    <t>Acho que esse avaliador gostou do trabalho, assim como o segundo. Acho que se nos empenharmos um pouco mais em blindar o paper, ele entra em breve em uma conferência top.</t>
+  </si>
+  <si>
+    <t>Acho que vale a pena ter um parágrafo falando do gitk, sourcetree e todas as outras ferramentas comerciais/open source (que não são pesquisa) que fazem um grafo do repositório local. Lá vc poderia deixar claro por que o nosso grafo é muito mais informativo que aqueles quanto a topologia como um todo.</t>
+  </si>
+  <si>
+    <t>Reforce falando isso: que não há necessidade de instrumentação, e que esse repositório cópia é feito de forma transparente.</t>
+  </si>
+  <si>
+    <t>Artigo</t>
+  </si>
+  <si>
+    <t>Dissertação</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
 </sst>
 </file>
 
@@ -255,13 +331,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="19.8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -283,6 +352,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +369,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -301,41 +378,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -343,29 +396,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -641,693 +706,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.140625" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.140625" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="153.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="E3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="153.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="E9" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="E12" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="141" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="E15" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="243" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="E18" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="E19" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="141" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="E20" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="E21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="E22" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+      <c r="E23" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="E25" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-    </row>
-    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-    </row>
-    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-    </row>
-    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-    </row>
-    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-    </row>
-    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-    </row>
-    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-    </row>
-    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-    </row>
-    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-    </row>
-    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-    </row>
-    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-    </row>
-    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-    </row>
-    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-    </row>
-    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-    </row>
-    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
+      <c r="E26" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <autoFilter ref="A1:E1"/>
+  <conditionalFormatting sqref="A2:E26">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND($A2="OK",$B2="OK")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>_xlfn.XOR($A2="OK",$B2="OK")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Página &amp;P de &amp;N</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="20" min="2" max="4" man="1"/>
+  </rowBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ArtigoFormatoIEEE/R2R_SANER2015.xlsx
+++ b/ArtigoFormatoIEEE/R2R_SANER2015.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>Revisão 1</t>
   </si>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,9 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -827,7 +829,9 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -945,7 +949,9 @@
     </row>
     <row r="16" spans="1:5" ht="243" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
@@ -988,7 +994,9 @@
     </row>
     <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C19" s="6" t="s">
         <v>21</v>
       </c>
@@ -1014,7 +1022,9 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1037,9 @@
     </row>
     <row r="22" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1082,9 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
@@ -1083,7 +1097,9 @@
     </row>
     <row r="26" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="C26" s="6" t="s">
         <v>28</v>
       </c>

--- a/ArtigoFormatoIEEE/R2R_SANER2015.xlsx
+++ b/ArtigoFormatoIEEE/R2R_SANER2015.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$B$1:$D$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Plan1!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>Revisão 1</t>
   </si>
@@ -311,13 +311,7 @@
     <t>Reforce falando isso: que não há necessidade de instrumentação, e que esse repositório cópia é feito de forma transparente.</t>
   </si>
   <si>
-    <t>Artigo</t>
-  </si>
-  <si>
-    <t>Dissertação</t>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>Item</t>
   </si>
 </sst>
 </file>
@@ -396,21 +390,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,418 +698,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.140625" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.140625" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="153.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="243" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
+    <row r="19" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="243" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="6" t="s">
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6" t="s">
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <conditionalFormatting sqref="A2:E26">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($A2="OK",$B2="OK")</formula>
+  <autoFilter ref="B1:D1"/>
+  <conditionalFormatting sqref="B2:D26">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND(#REF!="OK",#REF!="OK")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>_xlfn.XOR($A2="OK",$B2="OK")</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>_xlfn.XOR(#REF!="OK",#REF!="OK")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1126,7 +1083,7 @@
     <oddFooter>Página &amp;P de &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="20" min="2" max="4" man="1"/>
+    <brk id="20" min="1" max="3" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
